--- a/03-Project/00-UseCaseScenario/Modul_3_Use_Case_Story.xlsx
+++ b/03-Project/00-UseCaseScenario/Modul_3_Use_Case_Story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\03-Project\00-UseCaseScenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D345B-DDC4-4DA9-AED4-C63DC55909F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC1966-CBA8-479B-9B65-514DF6B0CE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
   </bookViews>
@@ -477,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A25FD3-4859-4EDE-ABFA-48E46259D9E4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
@@ -577,12 +577,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A7:A8"/>
@@ -591,6 +585,12 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/03-Project/00-UseCaseScenario/Modul_3_Use_Case_Story.xlsx
+++ b/03-Project/00-UseCaseScenario/Modul_3_Use_Case_Story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\03-Project\00-UseCaseScenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC1966-CBA8-479B-9B65-514DF6B0CE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF62232E-9FAA-4842-8BD4-5870D42E0448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
   </bookViews>
@@ -76,17 +76,20 @@
     <t>Varsayım: Bir ders bir şubede tek bir grupta açılabilir.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1) Sistem yöneticisi dersin açılacağı şubeyi seçer. 
-2) Sistem yönetici açılacak dersin dilini seçer.
-3) Sistem, sistem yöneticisine uygun derslikleri ve uygun öğretmenleri listeler.
-4) Sistem yöneticisi dersin açılacağı dersliği seçer.
-5) Sistem yöneticisi dersi verecek öğretmeni seçer.
-6) "Dersi oluştur" tuşuna basılır.
-5) Ders oluşturma işlemi sonlandırılır.</t>
-  </si>
-  <si>
-    <t>2) Seçilen dile ait ders seçili şubede zaten açılmış ise 
+    <t>1) Sistem yöneticisi sisteme giriş yapar.
+2) Sistem yöneticisi dersin açılacağı şubeyi seçer. 
+3) Sistem yönetici açılacak dersin dilini seçer.
+4) Sistem, sistem yöneticisine uygun derslikleri ve uygun öğretmenleri listeler.
+5) Sistem yöneticisi dersin açılacağı dersliği seçer.
+6) Sistem yöneticisi dersi verecek öğretmeni seçer.
+7) "Dersi oluştur" tuşuna basılır.
+8) Ders oluşturma işlemi sonlandırılır.</t>
+  </si>
+  <si>
+    <t>1) Yanlış kullanıcı adı/şifre girilmiş ise
+       1) "Yanlış kullanıcı adı/şifre girildi".
+       2) 1. adımın tekrar edilmesi beklenir.
+2) Seçilen dile ait ders seçili şubede zaten açılmış ise 
        1) "Ders seçili şubede açılmış olarak görünmektedir" mesajı gösterilir.
        2) İşlem sonlandırılır.
 3) Uygun bir derslik ya da öğretmen yok ise
@@ -153,13 +156,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A25FD3-4859-4EDE-ABFA-48E46259D9E4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +492,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -497,11 +500,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -509,11 +512,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -521,11 +524,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -533,11 +536,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -545,11 +548,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -557,11 +560,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -572,11 +575,17 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A7:A8"/>
@@ -585,12 +594,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
